--- a/Tien Trinh.xlsx
+++ b/Tien Trinh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/Desktop/Report/Baocao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/Desktop/Report/BaocaoTieuLuan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E6B207-97EF-2D48-B0FC-1EE40406690B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD17DB2B-FF9F-1544-AADF-0DBABF6CB4EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{B2DBE721-EF54-2D41-B34A-A99403E65C95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Mo ta he thong: db, ngon ngu, </t>
+  </si>
+  <si>
+    <t>3. Giao dien</t>
+  </si>
+  <si>
+    <t>1. Hien trang: cac ung dung tuong tu</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33827E2-9824-0743-B508-F79F82222A08}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -488,6 +497,21 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:B4"/>

--- a/Tien Trinh.xlsx
+++ b/Tien Trinh.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/Desktop/Report/BaocaoTieuLuan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuong/Desktop/baocao/BaocaoTieuLuan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD17DB2B-FF9F-1544-AADF-0DBABF6CB4EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{B2DBE721-EF54-2D41-B34A-A99403E65C95}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -54,9 +59,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Bug</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -67,12 +69,15 @@
   </si>
   <si>
     <t>1. Hien trang: cac ung dung tuong tu</t>
+  </si>
+  <si>
+    <t>unfinished</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -420,11 +425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33827E2-9824-0743-B508-F79F82222A08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -494,22 +499,31 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Tien Trinh.xlsx
+++ b/Tien Trinh.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -71,7 +71,13 @@
     <t>1. Hien trang: cac ung dung tuong tu</t>
   </si>
   <si>
-    <t>unfinished</t>
+    <t>1.Vẽ Usecase</t>
+  </si>
+  <si>
+    <t>2.Viết Giao diện</t>
+  </si>
+  <si>
+    <t>3.chuc năng của admin</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -524,6 +530,24 @@
       </c>
       <c r="E7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
